--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\EMR_LIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_projects\EMR-LIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4205EA5-00D4-4681-8489-0017A429F619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7C3B7-106F-4C19-96B8-F1C5C6B51C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10956" yWindow="2316" windowWidth="10752" windowHeight="9000" xr2:uid="{B783849E-EA18-490D-8A62-0A40EE860B4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B783849E-EA18-490D-8A62-0A40EE860B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="16">
   <si>
     <t>sid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +81,14 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE64EE3-901F-48EA-8576-98D7730DE1A0}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -1145,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -1360,6 +1369,447 @@
       </c>
       <c r="E63">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7619D4-5EDB-4E64-8247-0A54B8811F5A}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
